--- a/Reverse_anglesIn_80.xlsx
+++ b/Reverse_anglesIn_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,538 +440,4650 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>151.1040080107677</v>
+        <v>-527.2152782642723</v>
       </c>
       <c r="B2" t="n">
-        <v>61.26221655172921</v>
+        <v>-63.32778888155795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>150.6279146188416</v>
+        <v>-521.429513795948</v>
       </c>
       <c r="B3" t="n">
-        <v>61.25480940821339</v>
+        <v>-63.19903862755903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>151.0777627820078</v>
+        <v>-515.7611508198435</v>
       </c>
       <c r="B4" t="n">
-        <v>61.26227300274768</v>
+        <v>-63.07314146799137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>150.335355698235</v>
+        <v>-510.2052375262897</v>
       </c>
       <c r="B5" t="n">
-        <v>61.24958931426382</v>
+        <v>-62.95000989652534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>149.6171204470586</v>
+        <v>-504.7568447365242</v>
       </c>
       <c r="B6" t="n">
-        <v>61.25445100140508</v>
+        <v>-62.82955007347815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>151.0990846755236</v>
+        <v>-499.4115598548884</v>
       </c>
       <c r="B7" t="n">
-        <v>61.26386946466908</v>
+        <v>-62.71168068089932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>151.1059994343444</v>
+        <v>-494.1649884101259</v>
       </c>
       <c r="B8" t="n">
-        <v>61.26385459160274</v>
+        <v>-62.59631483463541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>151.0716006587348</v>
+        <v>-489.0130672161064</v>
       </c>
       <c r="B9" t="n">
-        <v>61.26228625840592</v>
+        <v>-62.48337248347781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>151.0508560926131</v>
+        <v>-483.9521858659599</v>
       </c>
       <c r="B10" t="n">
-        <v>61.26068873003567</v>
+        <v>-62.37278548662314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-499.0753722583954</v>
+        <v>-478.9787644627111</v>
       </c>
       <c r="B11" t="n">
-        <v>-62.69898421022675</v>
+        <v>-62.26448206256592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-450.7132057039753</v>
+        <v>-474.0892345859999</v>
       </c>
       <c r="B12" t="n">
-        <v>-61.65547960113312</v>
+        <v>-62.15838610391292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-409.1653962899356</v>
+        <v>-469.2805360800202</v>
       </c>
       <c r="B13" t="n">
-        <v>-60.80062431769959</v>
+        <v>-62.05443703812318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-372.184041279258</v>
+        <v>-464.5498103324021</v>
       </c>
       <c r="B14" t="n">
-        <v>-60.07508837114941</v>
+        <v>-61.95257841985381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-338.7618431614617</v>
+        <v>-459.8939011982907</v>
       </c>
       <c r="B15" t="n">
-        <v>-59.45616931841174</v>
+        <v>-61.85273814806138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-308.5686869532224</v>
+        <v>-455.3102383136131</v>
       </c>
       <c r="B16" t="n">
-        <v>-58.9468687150131</v>
+        <v>-61.75486387974168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-280.2919264865087</v>
+        <v>-450.7962735376221</v>
       </c>
       <c r="B17" t="n">
-        <v>-58.49308809416706</v>
+        <v>-61.65890112688957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-254.1727236715046</v>
+        <v>-446.3495587534553</v>
       </c>
       <c r="B18" t="n">
-        <v>-58.11704549264594</v>
+        <v>-61.56479624620914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-229.363147841884</v>
+        <v>-441.9677764079042</v>
       </c>
       <c r="B19" t="n">
-        <v>-57.7805351059199</v>
+        <v>-61.47249810994703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-205.936611234658</v>
+        <v>-437.6487297423037</v>
       </c>
       <c r="B20" t="n">
-        <v>-57.49279890744089</v>
+        <v>-61.38195793143704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-183.5329192522754</v>
+        <v>-433.3903292490201</v>
       </c>
       <c r="B21" t="n">
-        <v>-57.23789351134651</v>
+        <v>-61.29312864128649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-162.0656126117412</v>
+        <v>-429.1905773043447</v>
       </c>
       <c r="B22" t="n">
-        <v>-57.01433390946228</v>
+        <v>-61.20596480299767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-141.4587203077803</v>
+        <v>-425.0473976439959</v>
       </c>
       <c r="B23" t="n">
-        <v>-56.82084092923494</v>
+        <v>-61.12041523478114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-121.4251208754496</v>
+        <v>-420.9592520814517</v>
       </c>
       <c r="B24" t="n">
-        <v>-56.64194284185574</v>
+        <v>-61.03644954019665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-102.1135777124669</v>
+        <v>-416.9242556061133</v>
       </c>
       <c r="B25" t="n">
-        <v>-56.48944197372699</v>
+        <v>-60.95402048708419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-83.45386485617759</v>
+        <v>-412.9408277293483</v>
       </c>
       <c r="B26" t="n">
-        <v>-56.36124239531693</v>
+        <v>-60.87309203986551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-65.0979924170076</v>
+        <v>-409.0072189369909</v>
       </c>
       <c r="B27" t="n">
-        <v>-56.23638587817356</v>
+        <v>-60.79361908553746</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-47.28384607199658</v>
+        <v>-405.1221377049069</v>
       </c>
       <c r="B28" t="n">
-        <v>-56.13169878734575</v>
+        <v>-60.71557468792137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-29.8843244664235</v>
+        <v>-401.2839907721184</v>
       </c>
       <c r="B29" t="n">
-        <v>-56.04027333116066</v>
+        <v>-60.63891717463606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-12.81202886634965</v>
+        <v>-397.4914551269212</v>
       </c>
       <c r="B30" t="n">
-        <v>-55.95754509855669</v>
+        <v>-60.56361518333906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.986995873910295</v>
+        <v>-393.7431727814738</v>
       </c>
       <c r="B31" t="n">
-        <v>-55.88032199454692</v>
+        <v>-60.48963437053448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20.39333633751988</v>
+        <v>-390.0379095315025</v>
       </c>
       <c r="B32" t="n">
-        <v>-55.81893894650408</v>
+        <v>-60.41694469336723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36.52008244375008</v>
+        <v>-386.374466662136</v>
       </c>
       <c r="B33" t="n">
-        <v>-55.76533004355078</v>
+        <v>-60.34551627140577</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>52.45697550127349</v>
+        <v>-382.7515262470716</v>
       </c>
       <c r="B34" t="n">
-        <v>-55.7143903552839</v>
+        <v>-60.27531263229608</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>68.11447765662194</v>
+        <v>-379.1682172321507</v>
       </c>
       <c r="B35" t="n">
-        <v>-55.67325805540838</v>
+        <v>-60.20631644391565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>83.59230393507471</v>
+        <v>-375.6232245839656</v>
       </c>
       <c r="B36" t="n">
-        <v>-55.63470435721485</v>
+        <v>-60.13848904038777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>98.89717992564246</v>
+        <v>-372.1156172594109</v>
       </c>
       <c r="B37" t="n">
-        <v>-55.59976649126133</v>
+        <v>-60.07180825551725</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>113.9446908056653</v>
+        <v>-368.6443910180265</v>
       </c>
       <c r="B38" t="n">
-        <v>-55.57569995415608</v>
+        <v>-60.0062476518942</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>128.9047460298738</v>
+        <v>-365.2085978455061</v>
       </c>
       <c r="B39" t="n">
-        <v>-55.54832095756438</v>
+        <v>-59.94178229850625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>143.6817498328948</v>
+        <v>-361.8072759418104</v>
       </c>
       <c r="B40" t="n">
-        <v>-55.52694504426736</v>
+        <v>-59.87838581842984</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>158.2816073746846</v>
+        <v>-358.4396062278559</v>
       </c>
       <c r="B41" t="n">
-        <v>-55.51191564964197</v>
+        <v>-59.81603769603248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>172.8005275360359</v>
+        <v>-355.104686633125</v>
       </c>
       <c r="B42" t="n">
-        <v>-55.49437330187472</v>
+        <v>-59.75471257614813</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>187.2058861866692</v>
+        <v>-351.8017020725426</v>
       </c>
       <c r="B43" t="n">
-        <v>-55.47835234414282</v>
+        <v>-59.69438847141553</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>201.4126853260562</v>
+        <v>-348.52986864152</v>
       </c>
       <c r="B44" t="n">
-        <v>-55.47233379310395</v>
+        <v>-59.6350442282239</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>215.5461663838373</v>
+        <v>-345.2883476824698</v>
       </c>
       <c r="B45" t="n">
-        <v>-55.46442303772888</v>
+        <v>-59.57665524488867</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>229.5957279666718</v>
+        <v>-342.0765335662816</v>
       </c>
       <c r="B46" t="n">
-        <v>-55.45619659434269</v>
+        <v>-59.5192073992396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>243.4609063697666</v>
+        <v>-338.8936379791529</v>
       </c>
       <c r="B47" t="n">
-        <v>-55.45899283435683</v>
+        <v>-59.46267717512133</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>257.3207487499296</v>
+        <v>-335.7389529719785</v>
       </c>
       <c r="B48" t="n">
-        <v>-55.45327213455608</v>
+        <v>-59.40704444139979</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>271.0252568830179</v>
+        <v>-332.6118872590706</v>
       </c>
       <c r="B49" t="n">
-        <v>-55.45610843493561</v>
+        <v>-59.35229390028427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>284.6951755763322</v>
+        <v>-329.5116984380163</v>
       </c>
       <c r="B50" t="n">
-        <v>-55.45586657739047</v>
+        <v>-59.29840246024956</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>298.2783495769052</v>
+        <v>-326.4378641619568</v>
       </c>
       <c r="B51" t="n">
-        <v>-55.45757668238671</v>
+        <v>-59.24535723347039</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>311.7582314473883</v>
+        <v>-323.3897565360828</v>
       </c>
       <c r="B52" t="n">
-        <v>-55.46290757469926</v>
+        <v>-59.19313967719474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>325.2143200288415</v>
+        <v>-320.3667421964642</v>
       </c>
       <c r="B53" t="n">
-        <v>-55.46415897428622</v>
+        <v>-59.14173040956769</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>338.5815992878833</v>
+        <v>-317.3682550341985</v>
       </c>
       <c r="B54" t="n">
-        <v>-55.46838462990244</v>
+        <v>-59.09111284691453</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>351.8814751814867</v>
+        <v>-314.3938665246501</v>
       </c>
       <c r="B55" t="n">
-        <v>-55.47430338359803</v>
+        <v>-59.04127691420787</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>365.1092152333668</v>
+        <v>-311.4429472554723</v>
       </c>
       <c r="B56" t="n">
-        <v>-55.48131874820689</v>
+        <v>-58.99220204748691</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>378.2931252314984</v>
+        <v>-308.5150270543519</v>
       </c>
       <c r="B57" t="n">
-        <v>-55.48723872119847</v>
+        <v>-58.94387512541451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>391.3823628381544</v>
+        <v>-305.6095808211905</v>
       </c>
       <c r="B58" t="n">
-        <v>-55.49942483006443</v>
+        <v>-58.89628006513917</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>404.4638888821846</v>
+        <v>-302.7261670028415</v>
       </c>
       <c r="B59" t="n">
-        <v>-55.50529898596895</v>
+        <v>-58.84940441025895</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>417.4883883729484</v>
+        <v>-299.8642882772542</v>
       </c>
       <c r="B60" t="n">
-        <v>-55.51320592938116</v>
+        <v>-58.80323260115254</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>430.4452814575952</v>
+        <v>-297.023552874672</v>
       </c>
       <c r="B61" t="n">
-        <v>-55.52406280530428</v>
+        <v>-58.75775414935256</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>443.368037535669</v>
+        <v>-294.2034663391878</v>
       </c>
       <c r="B62" t="n">
-        <v>-55.53149819155932</v>
+        <v>-58.71295288481176</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>456.2556153714562</v>
+        <v>-291.4036158094403</v>
       </c>
       <c r="B63" t="n">
-        <v>-55.53937393670601</v>
+        <v>-58.66881647824496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>469.0932889680282</v>
+        <v>-288.6235550218774</v>
       </c>
       <c r="B64" t="n">
-        <v>-55.54776510494258</v>
+        <v>-58.62533058165949</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>481.8734972010034</v>
+        <v>-285.8630500535331</v>
       </c>
       <c r="B65" t="n">
-        <v>-55.55848832100281</v>
+        <v>-58.58249158434489</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>494.6263369798036</v>
+        <v>-283.1215411623515</v>
       </c>
       <c r="B66" t="n">
-        <v>-55.56864680765114</v>
+        <v>-58.54027875165838</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>507.3537872530313</v>
+        <v>-280.3986390026483</v>
       </c>
       <c r="B67" t="n">
-        <v>-55.57740119148584</v>
+        <v>-58.49867957259643</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>520.0044462268312</v>
+        <v>-277.6941371617658</v>
       </c>
       <c r="B68" t="n">
-        <v>-55.59109269332249</v>
+        <v>-58.45769120008287</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>-275.0075541243189</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-58.41729592033288</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>-272.338484394289</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-58.37747982011988</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>-269.6867695748307</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-58.33824169499231</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-267.0519993300372</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-58.2995668764334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-264.4338163452654</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-58.26144320348706</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-261.8319981430888</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-58.22386551477307</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-259.2461383955217</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-58.18681868972467</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-256.6760507869373</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-58.15029903029414</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-254.1213864667565</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-58.11429404261085</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-251.5818683794239</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-58.07879477691471</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-249.057245927596</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-58.04379357976455</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-246.5472308890809</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-58.00928073481372</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-244.0516066628013</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-57.97525001160611</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-241.570039606062</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-57.94168870166067</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-239.1023825496771</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-57.90859419582384</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-236.6483543495127</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-57.8759563025891</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-234.2077550314588</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-57.84376934385225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-231.7802991047905</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-57.81202237227833</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-229.3657969624173</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-57.78070998523685</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-226.9640445136609</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-57.74982580074852</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-224.574812283495</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-57.71936150439785</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-222.1979024155304</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-57.6893109281145</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-219.8330706176699</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-57.65966486829134</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-217.4801736660183</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-57.63041966175896</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-215.139046791744</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-57.60157056359795</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-212.8094410886846</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-57.57310767787924</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-210.4911651424436</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-57.54502439049593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-208.1841252136948</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-57.51731953548855</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-205.8880809803795</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-57.48998348877971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-203.6028898586996</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-57.46301207818028</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-201.3283029214607</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-57.4363948800645</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-199.0642394244867</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-57.41013109185133</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-196.8105827898084</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-57.38421782544407</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-194.5670407303696</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-57.3586418058922</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-192.3335574026044</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-57.3334034829743</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-190.1099713964615</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-57.30849707484712</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-187.8961289710775</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-57.28391699965537</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-185.6918382857787</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-57.25965554045177</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-183.4970685697849</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-57.23571440361525</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-181.3115329095316</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-57.21207991997854</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-179.1352415702345</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-57.18875603730945</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-176.9679974729705</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-57.16573434410908</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-174.8096792203643</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-57.14301073164397</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-172.6601269391871</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-57.12057892979449</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-170.5192600292714</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-57.09843707004201</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-168.3869741099735</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-57.07658207782585</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-166.263050167398</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-57.05500384271723</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-164.1474699973631</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-57.03370389822831</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-162.0401096110927</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-57.0126780710558</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-159.9407683014646</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-56.99191678140799</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-157.849501622154</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-56.97142635688677</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-155.7660378928221</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-56.95119304115246</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-153.690327275055</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-56.93121640357958</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-151.6223153488109</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-56.91149587732546</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-149.5618365386318</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-56.89202396498374</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-147.5088253016936</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-56.87279925087514</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-145.4631830171466</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-56.85381829685262</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-143.4248184863647</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-56.83507789465499</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-141.393554442876</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-56.81656967200577</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-139.3693855383614</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-56.79829557209331</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-137.3522135223177</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-56.78025215465569</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-135.3419534897601</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-56.76243640278784</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-133.3384886675185</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-56.74484331281757</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-131.3417587279515</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-56.72747161084007</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-129.3516364215353</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-56.71031546920187</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-127.3680769635635</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-56.69337435211865</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-125.3909898608212</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-56.67664480820433</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>-123.4203255929046</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-56.66012590656539</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>-121.4559106237152</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-56.64380886772157</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>-119.4977769653187</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-56.62769779148547</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>-117.5457997653303</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-56.61178690513695</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>-115.5998950387305</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-56.59607295361688</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>-113.6599736377356</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-56.580552274381</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>-111.7260251815084</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-56.56522615696464</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>-109.7979558278907</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-56.55009076935804</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>-107.8756542540322</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-56.53514077645631</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>-105.9590997678462</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-56.52037687700258</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>-104.0481705470608</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-56.50579313722507</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>-102.1428667991179</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-56.49139142338225</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>-100.2430814375493</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-56.4771667488118</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>-98.34873427686101</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-56.46311572643647</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>-96.45986522978777</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-56.44924271544002</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>-94.57628902031264</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-56.43553754013186</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>-92.69799046871881</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-56.42200106702945</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>-90.82491229469785</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-56.40863114584961</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>-88.95699118829295</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-56.39542540374531</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>-87.09414568144969</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-56.38238037507913</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>-85.23636415797775</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-56.36949683327647</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>-83.3835856042917</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-56.35677247609889</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>-81.53570156079911</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-56.34420177924267</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>-79.69274358004435</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-56.33178856597377</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>-77.85455102338268</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-56.31952369945407</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>-76.02118693869244</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-56.30741300071558</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>-74.19251020002099</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-56.29544866862849</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>-72.36851801645136</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-56.28363219831398</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>-70.54911488240521</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-56.27195851545826</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>-68.73428598205339</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-56.26042844972167</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>-66.92397327324001</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-56.24903935553732</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>-65.11811037591488</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-56.23778846839485</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>-63.31669869807427</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-56.2266772254625</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>-61.51965068746318</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-56.21570123515186</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>-59.72695565488834</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-56.204861264412</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>-57.93848708115813</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-56.19415020189642</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>-56.15428908643821</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-56.18357232399303</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>-54.37428790646583</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-56.1731241493664</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>-52.59843452146027</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-56.16280374711005</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>-50.82666446220648</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-56.15260798295714</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>-49.05900974009717</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-56.1425404612509</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>-47.29531435059459</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-56.1325918847446</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>-45.53566380593256</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-56.12276933360289</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>-43.77991435026485</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-56.11306437187947</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>-42.02808353900934</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-56.10347943440768</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>-40.28008708320017</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-56.0940099872013</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>-38.53592487123404</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-56.08465737027473</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>-36.79555274949729</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-56.07541980559338</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>-35.05891688288987</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-56.06629473450448</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>-33.32600783943126</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-56.05728272902021</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>-31.59675971456577</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-56.04838054526839</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>-29.87115873928072</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-56.03958838085713</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>-28.1491481709296</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-56.03090334969788</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>-26.43073008874255</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-56.02232686292766</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>-24.71580761440755</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-56.01385344074807</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>-23.00437859563307</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-56.00548412154291</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>-21.29640646576576</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-55.99721720311089</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>-19.59188137233872</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-55.9890534094395</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>-17.89077724732661</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-55.98099184491842</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>-16.19302779701719</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-55.97302901238715</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>-14.49858676587798</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-55.96516298918321</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>-12.80747498148239</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-55.95739593335006</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>-11.11961930352645</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-55.94972405163388</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>-9.434995976057373</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-55.94214652455614</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>-7.753587496655517</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-55.93466335818856</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>-6.075330456265664</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-55.92727114149022</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>-4.400256543465079</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-55.91997285632823</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>-2.72829006705072</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-55.91276438706068</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>-1.059418408346618</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-55.90564574039855</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>0.6063838885081412</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-55.898616198997</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>2.269178035455917</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-55.89167241947303</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>3.928944311127506</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-55.88481669229316</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>5.585747725074544</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-55.87804531973959</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>7.239603316642948</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-55.87135838112571</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>8.890490992283402</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-55.86475818148196</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>10.53851012809069</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-55.85823843986129</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>12.18365297404194</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-55.85180074807016</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>13.82593409254935</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-55.84544482283773</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>15.4654289287643</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-55.83916630812406</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>17.10209421934841</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-55.83296941464668</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>18.7360181099732</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-55.82684830649903</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>20.36717887968609</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-55.82080571949636</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>21.99558982690499</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-55.8148414132713</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>23.62132887619132</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-55.80895071459423</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>25.24439983518345</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-55.80313415003182</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>26.8647936358242</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-55.79739335466015</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>28.48257830766743</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-55.79172406342992</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>30.09774012735175</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-55.78612829188749</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>31.71034625388305</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-55.7806018018982</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>33.32034873792151</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-55.77514918993643</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>34.92784383941471</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-55.76976403140712</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>36.53282141309217</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-55.764447995292</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>38.13528385412253</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-55.75920165675232</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>39.73526698611627</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-55.75402303569697</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>41.33280687981661</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-55.74891050429603</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>42.92792638437392</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-55.74386318832546</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>44.52060196189885</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-55.73888351974278</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>46.11088537888712</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-55.73396844332814</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>47.69880687911982</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-55.72911638752741</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>49.28436841400632</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-55.72432829973874</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>50.86761575145249</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-55.71960118874512</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>52.44853364348568</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-55.71493711885027</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>54.02714361995978</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-55.71033525802227</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>55.60347482050102</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-55.70579406993841</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>57.17759355708073</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-55.70130945958678</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>58.74940918830666</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-55.69688864209086</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>60.31902138182681</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-55.69252531509246</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>61.88645816644282</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-55.68821797531965</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>63.45167411619382</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-55.68397056473439</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>65.01474191726932</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-55.6797783210564</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>66.57564561735016</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-55.67564333063564</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>68.13440878045225</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-55.67156446459655</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>69.6910788359515</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-55.66753879714386</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>71.24563049303548</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-55.66356882841507</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>72.79809214114246</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-55.65965338899743</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>74.34853269675284</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-55.65578748709032</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>75.89687305322269</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-55.65197821596726</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>77.44317441747434</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-55.64822129072567</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>78.98747536355661</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-55.64451452471788</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>80.52978314030145</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-55.64085822548525</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>82.07008657131526</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-55.63725352999768</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>83.60843652385505</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-55.63369750706557</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>85.14481432007095</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-55.63019199313513</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>86.6792540566946</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-55.62673517064897</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>88.21174976598056</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-55.62332812016295</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>89.74234230929106</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-55.61996834821446</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>91.27105584341078</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-55.61665447556168</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>92.79786068541681</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-55.6133893813502</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>94.32280988145794</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-55.61016982733166</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>95.84590733792895</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-55.60699589301124</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>97.36716615386523</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-55.60386723867022</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>98.88660619013186</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-55.60078285109969</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>100.4041908443986</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-55.59774629070898</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>101.9200181995044</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-55.59475078923265</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>103.4340395590319</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-55.59180009455353</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>104.9462997094556</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-55.58889168130866</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>106.4567654321626</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-55.58602877465154</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>107.9655274959209</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-55.58320473546647</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>109.4725396948221</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-55.58042356427928</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>110.9778428839748</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-55.57768308332064</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>112.481426882736</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-55.57498418753219</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>113.9833162506153</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-55.57232580703877</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>115.4835067910132</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-55.56970874142978</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>116.9820423712764</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-55.56712993524538</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>118.4789214487223</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-55.56459042308747</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>119.9741556511958</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-55.56208936098914</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>121.4677211674733</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-55.55962954293198</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>122.9596865933426</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-55.55720584625647</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>124.4500628346157</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-55.55481799556618</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>125.9388133820314</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-55.5524695550499</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>127.4259556158454</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-55.55015958890252</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>128.9115538231246</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-55.54788333593289</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>130.3955714461739</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-55.54564436313834</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>131.8780660588919</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-55.54343857624488</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>133.3589575203076</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-55.54127303682245</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>134.8383343026113</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-55.5391409308254</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>136.3162035201171</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-55.53704232922109</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>137.792556657461</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-55.53497839968006</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>139.2674345785242</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-55.53294617486591</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>140.7407829145764</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-55.53095115572401</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>142.2126568758241</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-55.52898824687168</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>143.6830674171552</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-55.5270582388995</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>145.1519927019143</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-55.52516256505636</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>146.6194919361461</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-55.52329737673197</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>148.085546619055</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-55.52146430901264</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>149.5501846332671</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-55.51966171294611</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>151.0133641466792</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-55.51789378418837</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>152.4751844432863</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-55.51615221467576</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>153.9355679260738</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-55.51444453123622</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>155.3945595427628</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-55.51276717840338</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>156.8521712702883</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-55.5111196154699</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>158.3084178077997</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-55.50950098815499</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>159.76327863224</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-55.50791375655226</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>161.2168186642818</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-55.50635266713763</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>162.6689727390323</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-55.50482394824423</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>164.1198290112361</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-55.50332031825915</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>165.5693404940494</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-55.50184659288152</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>167.0175297506469</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-55.50040098750337</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>168.4644025641936</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-55.49898361017511</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>169.9099962334403</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-55.49759159705889</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>171.3542697002306</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-55.49622912444338</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>172.7972806267801</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-55.494891616442</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>174.2389908081654</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-55.49358293275763</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>175.6794477917967</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-55.49229897731145</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>177.1186204967807</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-55.49104345104215</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>178.5565764023207</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-55.48981055724506</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>179.993274746863</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-55.48860446467219</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>181.4287464104545</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-55.4874229621218</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>182.8629640795829</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-55.48626866191101</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>184.2959986904641</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-55.48513594446205</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>185.7277670309357</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-55.48403269079521</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>187.1583753673679</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-55.48294973210105</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>188.5877884088362</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-55.48189061328284</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>190.0159886297415</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-55.48085747381662</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>191.4430112132299</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-55.47984751047986</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>192.8688660645946</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-55.47886024351711</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>194.2935752571581</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-55.47789441323415</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>195.7170867167969</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-55.47695494553385</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>197.1394820490392</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-55.47603474129766</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>198.5606845304909</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-55.47514103474843</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>199.9808046257346</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-55.47426456742741</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>201.39975354914</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-55.4734140859248</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>202.8175972722408</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-55.47258360410648</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>204.2343303978311</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-55.47177374828357</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>205.6499355731291</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-55.4709873844938</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>207.0644487333331</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-55.4702207231304</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>208.4778669513137</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-55.46947481792399</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>209.8901922074906</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-55.46875011493493</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>211.301419113613</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-55.4680472417695</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>212.7115759872005</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-55.46736405656029</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>214.120688536059</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-55.46669872393579</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>215.5287104310547</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-55.46605554952768</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>216.9357032407744</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-55.46542963172733</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>218.3416397740948</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-55.46482359294743</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>219.7465149681859</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-55.4642387773495</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>221.1503369863402</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-55.46367403298752</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>222.5531809344786</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-55.46312339470495</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>223.9549327757883</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-55.46259768474492</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>225.355704533415</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-55.46208688317295</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>226.7554480051116</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-55.46159558754382</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>228.1542233131727</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-55.46111893043652</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>229.5519735657915</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-55.46066268725696</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>230.9486995958008</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-55.46022661755331</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>232.3444797114767</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-55.45980419208242</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>233.7392453369416</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-55.45940196616021</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>235.1330395804392</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-55.45901646321426</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>236.5258725630866</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-55.45864696539824</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>237.9177456947655</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-55.45829393099812</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>239.3086301004923</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-55.45796027084444</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>240.6985951989899</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-55.45763968572302</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>242.0875872741089</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-55.45733763373777</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>243.4756345701119</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-55.45705173851157</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>244.8627321974512</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-55.45678333224676</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>246.2489206564406</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-55.45652829808427</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>247.6341767593766</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-55.45628963279517</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>249.018498260351</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-55.45606742168875</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>250.4019045637087</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-55.45586046494871</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>251.7843990075619</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-55.45566893271654</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>253.165981175986</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-55.45549262821081</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>254.5466800647672</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-55.45532985628466</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>255.926469147133</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-55.45518323468142</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>257.3053795619104</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-55.45504983960184</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>258.6833946278617</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-55.4549317885775</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>260.0605333583654</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-55.45482788909782</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>261.4367772654685</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-55.45473960882182</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>262.8121629113786</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-55.45466410830959</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>264.186679571815</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-55.45460264261517</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>265.5603440359852</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-55.45455431159681</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>266.9331357987264</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-55.45452087392966</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>268.3050716343502</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-55.45450142974621</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>269.6761583978834</v>
+      </c>
+      <c r="B386" t="n">
+        <v>-55.454495585933</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>271.0464433391483</v>
+      </c>
+      <c r="B387" t="n">
+        <v>-55.45449880925187</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>272.4158385255672</v>
+      </c>
+      <c r="B388" t="n">
+        <v>-55.45452007327564</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>273.7844221480493</v>
+      </c>
+      <c r="B389" t="n">
+        <v>-55.45455212707315</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>275.152177815603</v>
+      </c>
+      <c r="B390" t="n">
+        <v>-55.45459707987543</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>276.5191022807908</v>
+      </c>
+      <c r="B391" t="n">
+        <v>-55.45465505424173</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>277.8852082599368</v>
+      </c>
+      <c r="B392" t="n">
+        <v>-55.45472572290893</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>279.2504838552421</v>
+      </c>
+      <c r="B393" t="n">
+        <v>-55.45481003066647</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>280.6149558146493</v>
+      </c>
+      <c r="B394" t="n">
+        <v>-55.45490598348436</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>281.9786493804156</v>
+      </c>
+      <c r="B395" t="n">
+        <v>-55.45501128276396</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>283.3415142224677</v>
+      </c>
+      <c r="B396" t="n">
+        <v>-55.45513130711084</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>284.7035738703976</v>
+      </c>
+      <c r="B397" t="n">
+        <v>-55.45526403765913</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>286.0648569479405</v>
+      </c>
+      <c r="B398" t="n">
+        <v>-55.45540661922273</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>287.4253473257928</v>
+      </c>
+      <c r="B399" t="n">
+        <v>-55.45556115492548</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>288.7850273392837</v>
+      </c>
+      <c r="B400" t="n">
+        <v>-55.45573002207841</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>290.143954175984</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-55.45590736308083</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>291.5020966725815</v>
+      </c>
+      <c r="B402" t="n">
+        <v>-55.45609663189141</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>292.8594641470942</v>
+      </c>
+      <c r="B403" t="n">
+        <v>-55.4562974782995</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>294.2160594729623</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-55.45650950922175</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>295.5718784139805</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-55.45673402598941</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>296.926962181047</v>
+      </c>
+      <c r="B406" t="n">
+        <v>-55.45696654719375</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>298.2812665717829</v>
+      </c>
+      <c r="B407" t="n">
+        <v>-55.45721216650833</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>299.6348207993684</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-55.45746835215616</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>300.9876257982062</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-55.45773499671875</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>302.3397137165547</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-55.45800902416141</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>303.6910112169795</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-55.45829878071389</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>305.0416211223932</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-55.45859329786026</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>306.3914653786805</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-55.45890117604187</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>307.7405858072311</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-55.45921882468117</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>309.0889847294276</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-55.45954586811792</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>310.4366465467706</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-55.4598838280036</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>311.7836093959127</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-55.4602296745535</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>313.1298528738226</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-55.46058575362579</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>314.4753776050559</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-55.4609519686995</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>315.8201989075956</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-55.46132744376407</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>317.1643170175602</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-55.46171152666225</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>318.5077218207132</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-55.46210659775837</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>319.8504519295658</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-55.46250824599699</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>321.1924730216679</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-55.46292071152804</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>322.5338109230235</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-55.46334121394675</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>323.8744583729711</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-55.46377102703035</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>325.2144255301491</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-55.46420953996589</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>326.5537062761811</v>
+      </c>
+      <c r="B428" t="n">
+        <v>-55.46465720045595</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>327.8923185418051</v>
+      </c>
+      <c r="B429" t="n">
+        <v>-55.46511259624709</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>329.2302487669353</v>
+      </c>
+      <c r="B430" t="n">
+        <v>-55.46557753161559</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>330.5675035677568</v>
+      </c>
+      <c r="B431" t="n">
+        <v>-55.46605139001235</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>331.9041143110274</v>
+      </c>
+      <c r="B432" t="n">
+        <v>-55.46653087972049</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>333.2400552646301</v>
+      </c>
+      <c r="B433" t="n">
+        <v>-55.46701941857227</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>334.5753286222472</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-55.46751720164414</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>335.9099422678823</v>
+      </c>
+      <c r="B435" t="n">
+        <v>-55.46802334728639</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>337.2439194007063</v>
+      </c>
+      <c r="B436" t="n">
+        <v>-55.46853537564358</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>338.5772346243517</v>
+      </c>
+      <c r="B437" t="n">
+        <v>-55.46905669599879</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>339.9099019803566</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-55.46958589883495</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>341.2419311972848</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-55.47012238237023</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>342.5733082265317</v>
+      </c>
+      <c r="B440" t="n">
+        <v>-55.47066740581521</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>343.9040539358528</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-55.4712195720974</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>345.234166788596</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-55.47177907761301</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>346.5636595491293</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-55.47234398831632</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>347.892514425955</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-55.47291770453981</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>349.2207388517365</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-55.47349935743633</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>350.5483374970137</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-55.47408861351717</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>351.8753087770061</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-55.47468567191768</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>353.2016960503993</v>
+      </c>
+      <c r="B448" t="n">
+        <v>-55.4752859552119</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>354.5274584301055</v>
+      </c>
+      <c r="B449" t="n">
+        <v>-55.47589470970495</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>355.8525969333263</v>
+      </c>
+      <c r="B450" t="n">
+        <v>-55.47651160466236</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>357.1771458516343</v>
+      </c>
+      <c r="B451" t="n">
+        <v>-55.47713313031286</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>358.5010734614823</v>
+      </c>
+      <c r="B452" t="n">
+        <v>-55.4777634626261</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>359.8244029047922</v>
+      </c>
+      <c r="B453" t="n">
+        <v>-55.4783998907716</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>361.1471471410366</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-55.47904103280615</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>362.4692783786054</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-55.47969105434476</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>363.7908256677736</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-55.48034593538634</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>365.1117821717629</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-55.48100772087882</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>366.4321351380815</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-55.48167663044183</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>367.7519108002599</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-55.48235152959352</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>369.0710975678163</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-55.48303316049477</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>370.3897334000282</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-55.48371699059823</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>371.7077671500969</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-55.48441084369448</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>373.0252315628563</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-55.48510890060528</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>374.3421286919739</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-55.48581292022583</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>375.6584684156634</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-55.48652127993044</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>376.9742071716234</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-55.48723944221734</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>378.2894131874738</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-55.48795921223574</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>379.6040515352947</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-55.48868577388482</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>380.9181176905869</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-55.48941908780072</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>382.2316406673307</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-55.49015646494154</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>383.5446101666225</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-55.49089916829336</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>384.8570230330863</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-55.49164767208556</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>386.1688766582921</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-55.4924032141549</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>387.4801987363763</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-55.49316158234922</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>388.7909832766467</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-55.49392479222362</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>390.1012142213772</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-55.49469463170292</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>391.4108954572498</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-55.4954707882916</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>392.7200686176944</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-55.49624825508307</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>394.028698434007</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-55.49703167992585</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>395.3367856003239</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-55.49782152319225</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>396.6443486898638</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-55.49861565051565</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>397.9513864777717</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-55.49941402687874</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>399.2578926962316</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-55.50021789828433</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>400.5638904841709</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-55.50102486556351</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>401.8693560927958</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-55.50183775507699</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>403.1743096275532</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-55.50265493519083</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>404.4787488286546</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-55.50347562593329</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>405.7826607505644</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-55.50430285482209</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>407.0860827167758</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-55.50513241053908</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>408.3889843806866</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-55.50596689751464</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>409.6913818010879</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-55.50680570558318</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>410.9932678391293</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-55.50764933186878</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>412.2946613102295</v>
+      </c>
+      <c r="B493" t="n">
+        <v>-55.50849640413312</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>413.5955520055352</v>
+      </c>
+      <c r="B494" t="n">
+        <v>-55.50934718833889</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>414.8959501447378</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-55.51020160021737</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>416.1958413466415</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-55.51106216109497</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>417.4952370860487</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-55.51192629676869</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>418.7941510995175</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-55.51279291286254</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>420.0925673356025</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-55.51366503295151</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>421.3905148251221</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-55.51453826442842</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>422.6879531994903</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-55.5154182333735</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>423.9849175188643</v>
+      </c>
+      <c r="B502" t="n">
+        <v>-55.51630100977882</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>425.2814134227238</v>
+      </c>
+      <c r="B503" t="n">
+        <v>-55.51718554705766</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>426.5774107677748</v>
+      </c>
+      <c r="B504" t="n">
+        <v>-55.51807568343187</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>427.8729392763129</v>
+      </c>
+      <c r="B505" t="n">
+        <v>-55.51896900008099</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>429.1679820554912</v>
+      </c>
+      <c r="B506" t="n">
+        <v>-55.51986655146642</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>430.4625653899879</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-55.5207669219784</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>431.7566819669152</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-55.5216693940407</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>433.0503164174287</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-55.52257697409014</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>434.3434965407311</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-55.52348652349244</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>435.6362006774542</v>
+      </c>
+      <c r="B511" t="n">
+        <v>-55.52440059711829</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>436.9284564163534</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-55.52531606083996</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>438.2202264881266</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-55.52623800876458</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>439.5115414836054</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-55.52716231320709</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>440.8024097879386</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-55.52808816371228</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>442.0928146999813</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-55.52901783752117</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>443.3827789760269</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-55.52994969518185</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>444.6722794315401</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-55.53088557185671</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>445.9613292212996</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-55.53182438123408</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>447.2499414106802</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-55.53276503800739</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>448.538082464743</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-55.53371163012328</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>449.8258113878524</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-55.5346566963857</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>451.1130918191117</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-55.53560531266143</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>452.3999136656512</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-55.53655897766633</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>453.6862900007445</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-55.53751660500061</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>454.9722499282541</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-55.53847409947227</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>456.2577554965608</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-55.53943582177676</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>457.5428398938772</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-55.54039909007611</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>458.8274882938199</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-55.54136567971022</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>460.1117005461131</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-55.54233485156058</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>461.3954975949812</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-55.54330545992438</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>462.6788552173429</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-55.54427983467897</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>463.9617992855589</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-55.54525487518421</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>465.2443019516681</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-55.54623437671616</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>466.5263925275001</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-55.54721544949323</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>467.8080764389845</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-55.54819659830376</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>469.0893248677309</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-55.5491821015884</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>470.3701551915959</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-55.55017060089026</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>471.6505750351134</v>
+      </c>
+      <c r="B539" t="n">
+        <v>-55.55115963270357</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>472.9305678045135</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-55.55215360408481</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>474.2101701871694</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-55.5531462360528</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>475.4893515611472</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-55.5541427680029</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>476.7681150021557</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-55.55514267963908</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>478.0464876312802</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-55.55614191960351</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>479.3244355741066</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-55.55714551466263</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>480.6019874266426</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-55.55815058501799</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>481.8791470266285</v>
+      </c>
+      <c r="B547" t="n">
+        <v>-55.55915613356947</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>483.1558943058495</v>
+      </c>
+      <c r="B548" t="n">
+        <v>-55.56016469295244</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>484.4322395509105</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-55.56117615183121</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>485.7081801004796</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-55.56218863193548</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>486.9837363351004</v>
+      </c>
+      <c r="B551" t="n">
+        <v>-55.56320310700847</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>488.2588951010789</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-55.5642187427355</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>489.5336562524473</v>
+      </c>
+      <c r="B553" t="n">
+        <v>-55.56523646903207</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>490.8080374411433</v>
+      </c>
+      <c r="B554" t="n">
+        <v>-55.56625445568366</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>492.0820068682069</v>
+      </c>
+      <c r="B555" t="n">
+        <v>-55.56727722703327</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>493.3556045309592</v>
+      </c>
+      <c r="B556" t="n">
+        <v>-55.56829991537041</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>494.6287975984133</v>
+      </c>
+      <c r="B557" t="n">
+        <v>-55.56932541093397</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>495.9016222623983</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-55.57035076405754</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>497.1740606215664</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-55.57137754560178</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>498.4461033800574</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-55.57240724120051</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>499.7177671261913</v>
+      </c>
+      <c r="B561" t="n">
+        <v>-55.57343850058181</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>500.9890559516218</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-55.57446986608602</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>502.2599698657364</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-55.57550226148846</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>503.5304756710343</v>
+      </c>
+      <c r="B564" t="n">
+        <v>-55.57654161977105</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>504.800636286132</v>
+      </c>
+      <c r="B565" t="n">
+        <v>-55.57757607316815</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>506.07041463629</v>
+      </c>
+      <c r="B566" t="n">
+        <v>-55.57861393009818</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>507.3398086071531</v>
+      </c>
+      <c r="B567" t="n">
+        <v>-55.57965496558074</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>508.6088374587365</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-55.58069593663059</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>509.8774959837501</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-55.58173851759519</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>511.1457878811744</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-55.58278126179987</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>512.4137140015997</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-55.58382461571431</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>513.6812633563201</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-55.58487147532328</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>514.9484508246956</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-55.58591841655049</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>516.2152701418636</v>
+      </c>
+      <c r="B574" t="n">
+        <v>-55.58696805084066</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>517.48172607683</v>
+      </c>
+      <c r="B575" t="n">
+        <v>-55.58801799504871</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>518.7478287702613</v>
+      </c>
+      <c r="B576" t="n">
+        <v>-55.58906812932554</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>520.0135583214179</v>
+      </c>
+      <c r="B577" t="n">
+        <v>-55.59012190638188</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>521.2789504639829</v>
+      </c>
+      <c r="B578" t="n">
+        <v>-55.59117243632069</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>522.543957086125</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-55.59222880987414</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>523.8086177882564</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-55.593284327696</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>525.072923158961</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-55.59434093663044</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>526.3368793363252</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-55.5953983270278</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_80.xlsx
+++ b/Reverse_anglesIn_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,282 +440,4650 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-499.5579185847094</v>
+        <v>-527.2152782642723</v>
       </c>
       <c r="B2" t="n">
-        <v>62.72063232657579</v>
+        <v>-63.32778888155795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-422.775569243486</v>
+        <v>-521.429513795948</v>
       </c>
       <c r="B3" t="n">
-        <v>61.07942835832846</v>
+        <v>-63.19903862755903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-361.3480169787305</v>
+        <v>-515.7611508198435</v>
       </c>
       <c r="B4" t="n">
-        <v>59.87558814189227</v>
+        <v>-63.07314146799137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-309.3398084246314</v>
+        <v>-510.2052375262897</v>
       </c>
       <c r="B5" t="n">
-        <v>58.96318062045052</v>
+        <v>-62.95000989652534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-263.6536280119157</v>
+        <v>-504.7568447365242</v>
       </c>
       <c r="B6" t="n">
-        <v>58.2558747310887</v>
+        <v>-62.82955007347815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-222.4802069744931</v>
+        <v>-499.4115598548884</v>
       </c>
       <c r="B7" t="n">
-        <v>57.69859504980325</v>
+        <v>-62.71168068089932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-184.6752001818878</v>
+        <v>-494.1649884101259</v>
       </c>
       <c r="B8" t="n">
-        <v>57.254268182532</v>
+        <v>-62.59631483463541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-149.4705469153246</v>
+        <v>-489.0130672161064</v>
       </c>
       <c r="B9" t="n">
-        <v>56.89689473212966</v>
+        <v>-62.48337248347781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-116.326754273522</v>
+        <v>-483.9521858659599</v>
       </c>
       <c r="B10" t="n">
-        <v>56.60765520719486</v>
+        <v>-62.37278548662314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-84.85091194007759</v>
+        <v>-478.9787644627111</v>
       </c>
       <c r="B11" t="n">
-        <v>56.37256960963583</v>
+        <v>-62.26448206256592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-54.74856261542606</v>
+        <v>-474.0892345859999</v>
       </c>
       <c r="B12" t="n">
-        <v>56.18104252700938</v>
+        <v>-62.15838610391292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-25.79365365828346</v>
+        <v>-469.2805360800202</v>
       </c>
       <c r="B13" t="n">
-        <v>56.02489979866675</v>
+        <v>-62.05443703812318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2.191087394439322</v>
+        <v>-464.5498103324021</v>
       </c>
       <c r="B14" t="n">
-        <v>55.89772481687268</v>
+        <v>-61.95257841985381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29.34653040735187</v>
+        <v>-459.8939011982907</v>
       </c>
       <c r="B15" t="n">
-        <v>55.7944523505817</v>
+        <v>-61.85273814806138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>55.78685946136867</v>
+        <v>-455.3102383136131</v>
       </c>
       <c r="B16" t="n">
-        <v>55.71099763835377</v>
+        <v>-61.75486387974168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>81.60533401442687</v>
+        <v>-450.7962735376221</v>
       </c>
       <c r="B17" t="n">
-        <v>55.64406599602643</v>
+        <v>-61.65890112688957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>106.8791798598909</v>
+        <v>-446.3495587534553</v>
       </c>
       <c r="B18" t="n">
-        <v>55.59096377654108</v>
+        <v>-61.56479624620914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>131.6729254913087</v>
+        <v>-441.9677764079042</v>
       </c>
       <c r="B19" t="n">
-        <v>55.54947295961203</v>
+        <v>-61.47249810994703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>156.0408996157325</v>
+        <v>-437.6487297423037</v>
       </c>
       <c r="B20" t="n">
-        <v>55.5177608480794</v>
+        <v>-61.38195793143704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>180.029176479293</v>
+        <v>-433.3903292490201</v>
       </c>
       <c r="B21" t="n">
-        <v>55.49430573483206</v>
+        <v>-61.29312864128649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>203.6772919999119</v>
+        <v>-429.1905773043447</v>
       </c>
       <c r="B22" t="n">
-        <v>55.47782058472523</v>
+        <v>-61.20596480299767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>227.0191285299016</v>
+        <v>-425.0473976439959</v>
       </c>
       <c r="B23" t="n">
-        <v>55.46723358655642</v>
+        <v>-61.12041523478114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>250.0840277987801</v>
+        <v>-420.9592520814517</v>
       </c>
       <c r="B24" t="n">
-        <v>55.46163702329982</v>
+        <v>-61.03644954019665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>272.8975408200071</v>
+        <v>-416.9242556061133</v>
       </c>
       <c r="B25" t="n">
-        <v>55.46025744981244</v>
+        <v>-60.95402048708419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>295.4818914584294</v>
+        <v>-412.9408277293483</v>
       </c>
       <c r="B26" t="n">
-        <v>55.46244722187176</v>
+        <v>-60.87309203986551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>317.8567075108016</v>
+        <v>-409.0072189369909</v>
       </c>
       <c r="B27" t="n">
-        <v>55.46764203534183</v>
+        <v>-60.79361908553746</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>340.0391985959875</v>
+        <v>-405.1221377049069</v>
       </c>
       <c r="B28" t="n">
-        <v>55.47536687843343</v>
+        <v>-60.71557468792137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>362.044610598142</v>
+        <v>-401.2839907721184</v>
       </c>
       <c r="B29" t="n">
-        <v>55.48521278555005</v>
+        <v>-60.63891717463606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>383.8865149981777</v>
+        <v>-397.4914551269212</v>
       </c>
       <c r="B30" t="n">
-        <v>55.4968237847864</v>
+        <v>-60.56361518333906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>405.576945522042</v>
+        <v>-393.7431727814738</v>
       </c>
       <c r="B31" t="n">
-        <v>55.50990077230064</v>
+        <v>-60.48963437053448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>427.126662963648</v>
+        <v>-390.0379095315025</v>
       </c>
       <c r="B32" t="n">
-        <v>55.52418437433743</v>
+        <v>-60.41694469336723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>448.5453603930355</v>
+        <v>-386.374466662136</v>
       </c>
       <c r="B33" t="n">
-        <v>55.53944436763867</v>
+        <v>-60.34551627140577</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>469.8416756315536</v>
+        <v>-382.7515262470716</v>
       </c>
       <c r="B34" t="n">
-        <v>55.55549231315798</v>
+        <v>-60.27531263229608</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>491.0234542628098</v>
+        <v>-379.1682172321507</v>
       </c>
       <c r="B35" t="n">
-        <v>55.57215834553358</v>
+        <v>-60.20631644391565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>512.0977600191286</v>
+        <v>-375.6232245839656</v>
       </c>
       <c r="B36" t="n">
-        <v>55.58929633943792</v>
+        <v>-60.13848904038777</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>-372.1156172594109</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-60.07180825551725</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>-368.6443910180265</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-60.0062476518942</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>-365.2085978455061</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-59.94178229850625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>-361.8072759418104</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-59.87838581842984</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>-358.4396062278559</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-59.81603769603248</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>-355.104686633125</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-59.75471257614813</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>-351.8017020725426</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-59.69438847141553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>-348.52986864152</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-59.6350442282239</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>-345.2883476824698</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-59.57665524488867</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>-342.0765335662816</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-59.5192073992396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>-338.8936379791529</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-59.46267717512133</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>-335.7389529719785</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-59.40704444139979</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>-332.6118872590706</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-59.35229390028427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>-329.5116984380163</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-59.29840246024956</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>-326.4378641619568</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-59.24535723347039</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>-323.3897565360828</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-59.19313967719474</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>-320.3667421964642</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-59.14173040956769</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>-317.3682550341985</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-59.09111284691453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>-314.3938665246501</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-59.04127691420787</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>-311.4429472554723</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-58.99220204748691</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>-308.5150270543519</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-58.94387512541451</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>-305.6095808211905</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-58.89628006513917</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>-302.7261670028415</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-58.84940441025895</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>-299.8642882772542</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-58.80323260115254</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>-297.023552874672</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-58.75775414935256</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>-294.2034663391878</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-58.71295288481176</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>-291.4036158094403</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-58.66881647824496</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>-288.6235550218774</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-58.62533058165949</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>-285.8630500535331</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-58.58249158434489</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>-283.1215411623515</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-58.54027875165838</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>-280.3986390026483</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-58.49867957259643</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>-277.6941371617658</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-58.45769120008287</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>-275.0075541243189</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-58.41729592033288</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>-272.338484394289</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-58.37747982011988</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>-269.6867695748307</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-58.33824169499231</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-267.0519993300372</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-58.2995668764334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-264.4338163452654</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-58.26144320348706</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-261.8319981430888</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-58.22386551477307</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-259.2461383955217</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-58.18681868972467</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-256.6760507869373</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-58.15029903029414</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-254.1213864667565</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-58.11429404261085</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-251.5818683794239</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-58.07879477691471</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-249.057245927596</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-58.04379357976455</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-246.5472308890809</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-58.00928073481372</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-244.0516066628013</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-57.97525001160611</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-241.570039606062</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-57.94168870166067</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-239.1023825496771</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-57.90859419582384</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-236.6483543495127</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-57.8759563025891</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-234.2077550314588</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-57.84376934385225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-231.7802991047905</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-57.81202237227833</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-229.3657969624173</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-57.78070998523685</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-226.9640445136609</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-57.74982580074852</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-224.574812283495</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-57.71936150439785</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-222.1979024155304</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-57.6893109281145</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-219.8330706176699</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-57.65966486829134</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-217.4801736660183</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-57.63041966175896</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-215.139046791744</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-57.60157056359795</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-212.8094410886846</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-57.57310767787924</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-210.4911651424436</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-57.54502439049593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-208.1841252136948</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-57.51731953548855</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-205.8880809803795</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-57.48998348877971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-203.6028898586996</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-57.46301207818028</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-201.3283029214607</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-57.4363948800645</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-199.0642394244867</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-57.41013109185133</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-196.8105827898084</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-57.38421782544407</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-194.5670407303696</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-57.3586418058922</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-192.3335574026044</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-57.3334034829743</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-190.1099713964615</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-57.30849707484712</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-187.8961289710775</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-57.28391699965537</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-185.6918382857787</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-57.25965554045177</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-183.4970685697849</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-57.23571440361525</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-181.3115329095316</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-57.21207991997854</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-179.1352415702345</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-57.18875603730945</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-176.9679974729705</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-57.16573434410908</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-174.8096792203643</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-57.14301073164397</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-172.6601269391871</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-57.12057892979449</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-170.5192600292714</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-57.09843707004201</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-168.3869741099735</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-57.07658207782585</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-166.263050167398</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-57.05500384271723</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-164.1474699973631</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-57.03370389822831</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-162.0401096110927</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-57.0126780710558</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-159.9407683014646</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-56.99191678140799</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-157.849501622154</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-56.97142635688677</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-155.7660378928221</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-56.95119304115246</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-153.690327275055</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-56.93121640357958</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-151.6223153488109</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-56.91149587732546</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-149.5618365386318</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-56.89202396498374</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-147.5088253016936</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-56.87279925087514</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-145.4631830171466</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-56.85381829685262</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-143.4248184863647</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-56.83507789465499</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-141.393554442876</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-56.81656967200577</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-139.3693855383614</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-56.79829557209331</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-137.3522135223177</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-56.78025215465569</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-135.3419534897601</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-56.76243640278784</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-133.3384886675185</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-56.74484331281757</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-131.3417587279515</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-56.72747161084007</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-129.3516364215353</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-56.71031546920187</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-127.3680769635635</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-56.69337435211865</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-125.3909898608212</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-56.67664480820433</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>-123.4203255929046</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-56.66012590656539</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>-121.4559106237152</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-56.64380886772157</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>-119.4977769653187</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-56.62769779148547</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>-117.5457997653303</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-56.61178690513695</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>-115.5998950387305</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-56.59607295361688</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>-113.6599736377356</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-56.580552274381</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>-111.7260251815084</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-56.56522615696464</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>-109.7979558278907</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-56.55009076935804</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>-107.8756542540322</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-56.53514077645631</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>-105.9590997678462</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-56.52037687700258</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>-104.0481705470608</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-56.50579313722507</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>-102.1428667991179</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-56.49139142338225</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>-100.2430814375493</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-56.4771667488118</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>-98.34873427686101</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-56.46311572643647</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>-96.45986522978777</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-56.44924271544002</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>-94.57628902031264</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-56.43553754013186</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>-92.69799046871881</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-56.42200106702945</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>-90.82491229469785</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-56.40863114584961</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>-88.95699118829295</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-56.39542540374531</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>-87.09414568144969</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-56.38238037507913</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>-85.23636415797775</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-56.36949683327647</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>-83.3835856042917</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-56.35677247609889</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>-81.53570156079911</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-56.34420177924267</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>-79.69274358004435</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-56.33178856597377</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>-77.85455102338268</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-56.31952369945407</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>-76.02118693869244</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-56.30741300071558</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>-74.19251020002099</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-56.29544866862849</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>-72.36851801645136</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-56.28363219831398</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>-70.54911488240521</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-56.27195851545826</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>-68.73428598205339</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-56.26042844972167</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>-66.92397327324001</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-56.24903935553732</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>-65.11811037591488</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-56.23778846839485</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>-63.31669869807427</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-56.2266772254625</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>-61.51965068746318</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-56.21570123515186</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>-59.72695565488834</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-56.204861264412</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>-57.93848708115813</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-56.19415020189642</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>-56.15428908643821</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-56.18357232399303</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>-54.37428790646583</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-56.1731241493664</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>-52.59843452146027</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-56.16280374711005</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>-50.82666446220648</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-56.15260798295714</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>-49.05900974009717</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-56.1425404612509</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>-47.29531435059459</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-56.1325918847446</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>-45.53566380593256</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-56.12276933360289</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>-43.77991435026485</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-56.11306437187947</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>-42.02808353900934</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-56.10347943440768</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>-40.28008708320017</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-56.0940099872013</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>-38.53592487123404</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-56.08465737027473</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>-36.79555274949729</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-56.07541980559338</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>-35.05891688288987</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-56.06629473450448</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>-33.32600783943126</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-56.05728272902021</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>-31.59675971456577</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-56.04838054526839</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>-29.87115873928072</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-56.03958838085713</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>-28.1491481709296</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-56.03090334969788</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>-26.43073008874255</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-56.02232686292766</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>-24.71580761440755</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-56.01385344074807</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>-23.00437859563307</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-56.00548412154291</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>-21.29640646576576</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-55.99721720311089</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>-19.59188137233872</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-55.9890534094395</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>-17.89077724732661</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-55.98099184491842</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>-16.19302779701719</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-55.97302901238715</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>-14.49858676587798</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-55.96516298918321</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>-12.80747498148239</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-55.95739593335006</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>-11.11961930352645</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-55.94972405163388</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>-9.434995976057373</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-55.94214652455614</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>-7.753587496655517</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-55.93466335818856</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>-6.075330456265664</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-55.92727114149022</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>-4.400256543465079</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-55.91997285632823</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>-2.72829006705072</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-55.91276438706068</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>-1.059418408346618</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-55.90564574039855</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>0.6063838885081412</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-55.898616198997</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>2.269178035455917</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-55.89167241947303</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>3.928944311127506</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-55.88481669229316</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>5.585747725074544</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-55.87804531973959</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>7.239603316642948</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-55.87135838112571</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>8.890490992283402</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-55.86475818148196</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>10.53851012809069</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-55.85823843986129</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>12.18365297404194</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-55.85180074807016</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>13.82593409254935</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-55.84544482283773</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>15.4654289287643</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-55.83916630812406</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>17.10209421934841</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-55.83296941464668</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>18.7360181099732</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-55.82684830649903</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>20.36717887968609</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-55.82080571949636</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>21.99558982690499</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-55.8148414132713</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>23.62132887619132</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-55.80895071459423</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>25.24439983518345</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-55.80313415003182</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>26.8647936358242</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-55.79739335466015</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>28.48257830766743</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-55.79172406342992</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>30.09774012735175</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-55.78612829188749</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>31.71034625388305</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-55.7806018018982</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>33.32034873792151</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-55.77514918993643</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>34.92784383941471</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-55.76976403140712</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>36.53282141309217</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-55.764447995292</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>38.13528385412253</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-55.75920165675232</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>39.73526698611627</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-55.75402303569697</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>41.33280687981661</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-55.74891050429603</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>42.92792638437392</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-55.74386318832546</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>44.52060196189885</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-55.73888351974278</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>46.11088537888712</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-55.73396844332814</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>47.69880687911982</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-55.72911638752741</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>49.28436841400632</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-55.72432829973874</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>50.86761575145249</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-55.71960118874512</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>52.44853364348568</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-55.71493711885027</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>54.02714361995978</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-55.71033525802227</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>55.60347482050102</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-55.70579406993841</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>57.17759355708073</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-55.70130945958678</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>58.74940918830666</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-55.69688864209086</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>60.31902138182681</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-55.69252531509246</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>61.88645816644282</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-55.68821797531965</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>63.45167411619382</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-55.68397056473439</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>65.01474191726932</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-55.6797783210564</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>66.57564561735016</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-55.67564333063564</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>68.13440878045225</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-55.67156446459655</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>69.6910788359515</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-55.66753879714386</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>71.24563049303548</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-55.66356882841507</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>72.79809214114246</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-55.65965338899743</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>74.34853269675284</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-55.65578748709032</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>75.89687305322269</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-55.65197821596726</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>77.44317441747434</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-55.64822129072567</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>78.98747536355661</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-55.64451452471788</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>80.52978314030145</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-55.64085822548525</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>82.07008657131526</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-55.63725352999768</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>83.60843652385505</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-55.63369750706557</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>85.14481432007095</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-55.63019199313513</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>86.6792540566946</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-55.62673517064897</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>88.21174976598056</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-55.62332812016295</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>89.74234230929106</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-55.61996834821446</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>91.27105584341078</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-55.61665447556168</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>92.79786068541681</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-55.6133893813502</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>94.32280988145794</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-55.61016982733166</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>95.84590733792895</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-55.60699589301124</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>97.36716615386523</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-55.60386723867022</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>98.88660619013186</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-55.60078285109969</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>100.4041908443986</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-55.59774629070898</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>101.9200181995044</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-55.59475078923265</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>103.4340395590319</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-55.59180009455353</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>104.9462997094556</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-55.58889168130866</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>106.4567654321626</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-55.58602877465154</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>107.9655274959209</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-55.58320473546647</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>109.4725396948221</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-55.58042356427928</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>110.9778428839748</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-55.57768308332064</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>112.481426882736</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-55.57498418753219</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>113.9833162506153</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-55.57232580703877</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>115.4835067910132</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-55.56970874142978</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>116.9820423712764</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-55.56712993524538</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>118.4789214487223</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-55.56459042308747</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>119.9741556511958</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-55.56208936098914</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>121.4677211674733</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-55.55962954293198</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>122.9596865933426</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-55.55720584625647</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>124.4500628346157</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-55.55481799556618</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>125.9388133820314</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-55.5524695550499</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>127.4259556158454</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-55.55015958890252</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>128.9115538231246</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-55.54788333593289</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>130.3955714461739</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-55.54564436313834</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>131.8780660588919</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-55.54343857624488</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>133.3589575203076</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-55.54127303682245</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>134.8383343026113</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-55.5391409308254</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>136.3162035201171</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-55.53704232922109</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>137.792556657461</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-55.53497839968006</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>139.2674345785242</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-55.53294617486591</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>140.7407829145764</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-55.53095115572401</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>142.2126568758241</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-55.52898824687168</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>143.6830674171552</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-55.5270582388995</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>145.1519927019143</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-55.52516256505636</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>146.6194919361461</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-55.52329737673197</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>148.085546619055</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-55.52146430901264</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>149.5501846332671</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-55.51966171294611</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>151.0133641466792</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-55.51789378418837</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>152.4751844432863</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-55.51615221467576</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>153.9355679260738</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-55.51444453123622</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>155.3945595427628</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-55.51276717840338</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>156.8521712702883</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-55.5111196154699</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>158.3084178077997</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-55.50950098815499</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>159.76327863224</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-55.50791375655226</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>161.2168186642818</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-55.50635266713763</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>162.6689727390323</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-55.50482394824423</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>164.1198290112361</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-55.50332031825915</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>165.5693404940494</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-55.50184659288152</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>167.0175297506469</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-55.50040098750337</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>168.4644025641936</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-55.49898361017511</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>169.9099962334403</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-55.49759159705889</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>171.3542697002306</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-55.49622912444338</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>172.7972806267801</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-55.494891616442</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>174.2389908081654</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-55.49358293275763</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>175.6794477917967</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-55.49229897731145</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>177.1186204967807</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-55.49104345104215</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>178.5565764023207</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-55.48981055724506</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>179.993274746863</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-55.48860446467219</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>181.4287464104545</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-55.4874229621218</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>182.8629640795829</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-55.48626866191101</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>184.2959986904641</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-55.48513594446205</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>185.7277670309357</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-55.48403269079521</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>187.1583753673679</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-55.48294973210105</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>188.5877884088362</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-55.48189061328284</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>190.0159886297415</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-55.48085747381662</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>191.4430112132299</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-55.47984751047986</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>192.8688660645946</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-55.47886024351711</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>194.2935752571581</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-55.47789441323415</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>195.7170867167969</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-55.47695494553385</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>197.1394820490392</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-55.47603474129766</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>198.5606845304909</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-55.47514103474843</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>199.9808046257346</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-55.47426456742741</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>201.39975354914</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-55.4734140859248</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>202.8175972722408</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-55.47258360410648</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>204.2343303978311</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-55.47177374828357</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>205.6499355731291</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-55.4709873844938</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>207.0644487333331</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-55.4702207231304</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>208.4778669513137</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-55.46947481792399</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>209.8901922074906</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-55.46875011493493</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>211.301419113613</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-55.4680472417695</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>212.7115759872005</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-55.46736405656029</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>214.120688536059</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-55.46669872393579</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>215.5287104310547</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-55.46605554952768</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>216.9357032407744</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-55.46542963172733</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>218.3416397740948</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-55.46482359294743</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>219.7465149681859</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-55.4642387773495</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>221.1503369863402</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-55.46367403298752</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>222.5531809344786</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-55.46312339470495</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>223.9549327757883</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-55.46259768474492</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>225.355704533415</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-55.46208688317295</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>226.7554480051116</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-55.46159558754382</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>228.1542233131727</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-55.46111893043652</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>229.5519735657915</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-55.46066268725696</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>230.9486995958008</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-55.46022661755331</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>232.3444797114767</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-55.45980419208242</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>233.7392453369416</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-55.45940196616021</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>235.1330395804392</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-55.45901646321426</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>236.5258725630866</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-55.45864696539824</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>237.9177456947655</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-55.45829393099812</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>239.3086301004923</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-55.45796027084444</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>240.6985951989899</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-55.45763968572302</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>242.0875872741089</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-55.45733763373777</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>243.4756345701119</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-55.45705173851157</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>244.8627321974512</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-55.45678333224676</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>246.2489206564406</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-55.45652829808427</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>247.6341767593766</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-55.45628963279517</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>249.018498260351</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-55.45606742168875</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>250.4019045637087</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-55.45586046494871</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>251.7843990075619</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-55.45566893271654</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>253.165981175986</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-55.45549262821081</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>254.5466800647672</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-55.45532985628466</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>255.926469147133</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-55.45518323468142</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>257.3053795619104</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-55.45504983960184</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>258.6833946278617</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-55.4549317885775</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>260.0605333583654</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-55.45482788909782</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>261.4367772654685</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-55.45473960882182</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>262.8121629113786</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-55.45466410830959</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>264.186679571815</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-55.45460264261517</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>265.5603440359852</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-55.45455431159681</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>266.9331357987264</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-55.45452087392966</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>268.3050716343502</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-55.45450142974621</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>269.6761583978834</v>
+      </c>
+      <c r="B386" t="n">
+        <v>-55.454495585933</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>271.0464433391483</v>
+      </c>
+      <c r="B387" t="n">
+        <v>-55.45449880925187</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>272.4158385255672</v>
+      </c>
+      <c r="B388" t="n">
+        <v>-55.45452007327564</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>273.7844221480493</v>
+      </c>
+      <c r="B389" t="n">
+        <v>-55.45455212707315</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>275.152177815603</v>
+      </c>
+      <c r="B390" t="n">
+        <v>-55.45459707987543</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>276.5191022807908</v>
+      </c>
+      <c r="B391" t="n">
+        <v>-55.45465505424173</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>277.8852082599368</v>
+      </c>
+      <c r="B392" t="n">
+        <v>-55.45472572290893</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>279.2504838552421</v>
+      </c>
+      <c r="B393" t="n">
+        <v>-55.45481003066647</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>280.6149558146493</v>
+      </c>
+      <c r="B394" t="n">
+        <v>-55.45490598348436</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>281.9786493804156</v>
+      </c>
+      <c r="B395" t="n">
+        <v>-55.45501128276396</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>283.3415142224677</v>
+      </c>
+      <c r="B396" t="n">
+        <v>-55.45513130711084</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>284.7035738703976</v>
+      </c>
+      <c r="B397" t="n">
+        <v>-55.45526403765913</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>286.0648569479405</v>
+      </c>
+      <c r="B398" t="n">
+        <v>-55.45540661922273</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>287.4253473257928</v>
+      </c>
+      <c r="B399" t="n">
+        <v>-55.45556115492548</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>288.7850273392837</v>
+      </c>
+      <c r="B400" t="n">
+        <v>-55.45573002207841</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>290.143954175984</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-55.45590736308083</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>291.5020966725815</v>
+      </c>
+      <c r="B402" t="n">
+        <v>-55.45609663189141</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>292.8594641470942</v>
+      </c>
+      <c r="B403" t="n">
+        <v>-55.4562974782995</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>294.2160594729623</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-55.45650950922175</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>295.5718784139805</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-55.45673402598941</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>296.926962181047</v>
+      </c>
+      <c r="B406" t="n">
+        <v>-55.45696654719375</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>298.2812665717829</v>
+      </c>
+      <c r="B407" t="n">
+        <v>-55.45721216650833</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>299.6348207993684</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-55.45746835215616</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>300.9876257982062</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-55.45773499671875</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>302.3397137165547</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-55.45800902416141</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>303.6910112169795</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-55.45829878071389</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>305.0416211223932</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-55.45859329786026</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>306.3914653786805</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-55.45890117604187</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>307.7405858072311</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-55.45921882468117</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>309.0889847294276</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-55.45954586811792</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>310.4366465467706</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-55.4598838280036</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>311.7836093959127</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-55.4602296745535</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>313.1298528738226</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-55.46058575362579</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>314.4753776050559</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-55.4609519686995</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>315.8201989075956</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-55.46132744376407</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>317.1643170175602</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-55.46171152666225</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>318.5077218207132</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-55.46210659775837</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>319.8504519295658</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-55.46250824599699</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>321.1924730216679</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-55.46292071152804</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>322.5338109230235</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-55.46334121394675</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>323.8744583729711</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-55.46377102703035</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>325.2144255301491</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-55.46420953996589</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>326.5537062761811</v>
+      </c>
+      <c r="B428" t="n">
+        <v>-55.46465720045595</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>327.8923185418051</v>
+      </c>
+      <c r="B429" t="n">
+        <v>-55.46511259624709</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>329.2302487669353</v>
+      </c>
+      <c r="B430" t="n">
+        <v>-55.46557753161559</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>330.5675035677568</v>
+      </c>
+      <c r="B431" t="n">
+        <v>-55.46605139001235</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>331.9041143110274</v>
+      </c>
+      <c r="B432" t="n">
+        <v>-55.46653087972049</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>333.2400552646301</v>
+      </c>
+      <c r="B433" t="n">
+        <v>-55.46701941857227</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>334.5753286222472</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-55.46751720164414</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>335.9099422678823</v>
+      </c>
+      <c r="B435" t="n">
+        <v>-55.46802334728639</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>337.2439194007063</v>
+      </c>
+      <c r="B436" t="n">
+        <v>-55.46853537564358</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>338.5772346243517</v>
+      </c>
+      <c r="B437" t="n">
+        <v>-55.46905669599879</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>339.9099019803566</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-55.46958589883495</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>341.2419311972848</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-55.47012238237023</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>342.5733082265317</v>
+      </c>
+      <c r="B440" t="n">
+        <v>-55.47066740581521</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>343.9040539358528</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-55.4712195720974</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>345.234166788596</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-55.47177907761301</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>346.5636595491293</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-55.47234398831632</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>347.892514425955</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-55.47291770453981</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>349.2207388517365</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-55.47349935743633</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>350.5483374970137</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-55.47408861351717</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>351.8753087770061</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-55.47468567191768</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>353.2016960503993</v>
+      </c>
+      <c r="B448" t="n">
+        <v>-55.4752859552119</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>354.5274584301055</v>
+      </c>
+      <c r="B449" t="n">
+        <v>-55.47589470970495</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>355.8525969333263</v>
+      </c>
+      <c r="B450" t="n">
+        <v>-55.47651160466236</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>357.1771458516343</v>
+      </c>
+      <c r="B451" t="n">
+        <v>-55.47713313031286</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>358.5010734614823</v>
+      </c>
+      <c r="B452" t="n">
+        <v>-55.4777634626261</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>359.8244029047922</v>
+      </c>
+      <c r="B453" t="n">
+        <v>-55.4783998907716</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>361.1471471410366</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-55.47904103280615</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>362.4692783786054</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-55.47969105434476</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>363.7908256677736</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-55.48034593538634</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>365.1117821717629</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-55.48100772087882</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>366.4321351380815</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-55.48167663044183</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>367.7519108002599</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-55.48235152959352</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>369.0710975678163</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-55.48303316049477</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>370.3897334000282</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-55.48371699059823</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>371.7077671500969</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-55.48441084369448</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>373.0252315628563</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-55.48510890060528</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>374.3421286919739</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-55.48581292022583</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>375.6584684156634</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-55.48652127993044</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>376.9742071716234</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-55.48723944221734</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>378.2894131874738</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-55.48795921223574</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>379.6040515352947</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-55.48868577388482</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>380.9181176905869</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-55.48941908780072</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>382.2316406673307</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-55.49015646494154</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>383.5446101666225</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-55.49089916829336</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>384.8570230330863</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-55.49164767208556</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>386.1688766582921</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-55.4924032141549</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>387.4801987363763</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-55.49316158234922</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>388.7909832766467</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-55.49392479222362</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>390.1012142213772</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-55.49469463170292</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>391.4108954572498</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-55.4954707882916</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>392.7200686176944</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-55.49624825508307</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>394.028698434007</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-55.49703167992585</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>395.3367856003239</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-55.49782152319225</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>396.6443486898638</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-55.49861565051565</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>397.9513864777717</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-55.49941402687874</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>399.2578926962316</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-55.50021789828433</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>400.5638904841709</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-55.50102486556351</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>401.8693560927958</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-55.50183775507699</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>403.1743096275532</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-55.50265493519083</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>404.4787488286546</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-55.50347562593329</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>405.7826607505644</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-55.50430285482209</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>407.0860827167758</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-55.50513241053908</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>408.3889843806866</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-55.50596689751464</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>409.6913818010879</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-55.50680570558318</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>410.9932678391293</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-55.50764933186878</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>412.2946613102295</v>
+      </c>
+      <c r="B493" t="n">
+        <v>-55.50849640413312</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>413.5955520055352</v>
+      </c>
+      <c r="B494" t="n">
+        <v>-55.50934718833889</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>414.8959501447378</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-55.51020160021737</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>416.1958413466415</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-55.51106216109497</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>417.4952370860487</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-55.51192629676869</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>418.7941510995175</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-55.51279291286254</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>420.0925673356025</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-55.51366503295151</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>421.3905148251221</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-55.51453826442842</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>422.6879531994903</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-55.5154182333735</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>423.9849175188643</v>
+      </c>
+      <c r="B502" t="n">
+        <v>-55.51630100977882</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>425.2814134227238</v>
+      </c>
+      <c r="B503" t="n">
+        <v>-55.51718554705766</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>426.5774107677748</v>
+      </c>
+      <c r="B504" t="n">
+        <v>-55.51807568343187</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>427.8729392763129</v>
+      </c>
+      <c r="B505" t="n">
+        <v>-55.51896900008099</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>429.1679820554912</v>
+      </c>
+      <c r="B506" t="n">
+        <v>-55.51986655146642</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>430.4625653899879</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-55.5207669219784</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>431.7566819669152</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-55.5216693940407</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>433.0503164174287</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-55.52257697409014</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>434.3434965407311</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-55.52348652349244</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>435.6362006774542</v>
+      </c>
+      <c r="B511" t="n">
+        <v>-55.52440059711829</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>436.9284564163534</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-55.52531606083996</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>438.2202264881266</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-55.52623800876458</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>439.5115414836054</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-55.52716231320709</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>440.8024097879386</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-55.52808816371228</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>442.0928146999813</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-55.52901783752117</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>443.3827789760269</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-55.52994969518185</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>444.6722794315401</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-55.53088557185671</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>445.9613292212996</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-55.53182438123408</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>447.2499414106802</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-55.53276503800739</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>448.538082464743</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-55.53371163012328</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>449.8258113878524</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-55.5346566963857</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>451.1130918191117</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-55.53560531266143</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>452.3999136656512</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-55.53655897766633</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>453.6862900007445</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-55.53751660500061</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>454.9722499282541</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-55.53847409947227</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>456.2577554965608</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-55.53943582177676</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>457.5428398938772</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-55.54039909007611</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>458.8274882938199</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-55.54136567971022</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>460.1117005461131</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-55.54233485156058</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>461.3954975949812</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-55.54330545992438</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>462.6788552173429</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-55.54427983467897</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>463.9617992855589</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-55.54525487518421</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>465.2443019516681</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-55.54623437671616</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>466.5263925275001</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-55.54721544949323</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>467.8080764389845</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-55.54819659830376</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>469.0893248677309</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-55.5491821015884</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>470.3701551915959</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-55.55017060089026</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>471.6505750351134</v>
+      </c>
+      <c r="B539" t="n">
+        <v>-55.55115963270357</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>472.9305678045135</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-55.55215360408481</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>474.2101701871694</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-55.5531462360528</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>475.4893515611472</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-55.5541427680029</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>476.7681150021557</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-55.55514267963908</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>478.0464876312802</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-55.55614191960351</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>479.3244355741066</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-55.55714551466263</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>480.6019874266426</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-55.55815058501799</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>481.8791470266285</v>
+      </c>
+      <c r="B547" t="n">
+        <v>-55.55915613356947</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>483.1558943058495</v>
+      </c>
+      <c r="B548" t="n">
+        <v>-55.56016469295244</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>484.4322395509105</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-55.56117615183121</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>485.7081801004796</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-55.56218863193548</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>486.9837363351004</v>
+      </c>
+      <c r="B551" t="n">
+        <v>-55.56320310700847</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>488.2588951010789</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-55.5642187427355</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>489.5336562524473</v>
+      </c>
+      <c r="B553" t="n">
+        <v>-55.56523646903207</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>490.8080374411433</v>
+      </c>
+      <c r="B554" t="n">
+        <v>-55.56625445568366</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>492.0820068682069</v>
+      </c>
+      <c r="B555" t="n">
+        <v>-55.56727722703327</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>493.3556045309592</v>
+      </c>
+      <c r="B556" t="n">
+        <v>-55.56829991537041</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>494.6287975984133</v>
+      </c>
+      <c r="B557" t="n">
+        <v>-55.56932541093397</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>495.9016222623983</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-55.57035076405754</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>497.1740606215664</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-55.57137754560178</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>498.4461033800574</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-55.57240724120051</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>499.7177671261913</v>
+      </c>
+      <c r="B561" t="n">
+        <v>-55.57343850058181</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>500.9890559516218</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-55.57446986608602</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>502.2599698657364</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-55.57550226148846</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>503.5304756710343</v>
+      </c>
+      <c r="B564" t="n">
+        <v>-55.57654161977105</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>504.800636286132</v>
+      </c>
+      <c r="B565" t="n">
+        <v>-55.57757607316815</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>506.07041463629</v>
+      </c>
+      <c r="B566" t="n">
+        <v>-55.57861393009818</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>507.3398086071531</v>
+      </c>
+      <c r="B567" t="n">
+        <v>-55.57965496558074</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>508.6088374587365</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-55.58069593663059</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>509.8774959837501</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-55.58173851759519</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>511.1457878811744</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-55.58278126179987</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>512.4137140015997</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-55.58382461571431</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>513.6812633563201</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-55.58487147532328</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>514.9484508246956</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-55.58591841655049</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>516.2152701418636</v>
+      </c>
+      <c r="B574" t="n">
+        <v>-55.58696805084066</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>517.48172607683</v>
+      </c>
+      <c r="B575" t="n">
+        <v>-55.58801799504871</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>518.7478287702613</v>
+      </c>
+      <c r="B576" t="n">
+        <v>-55.58906812932554</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>520.0135583214179</v>
+      </c>
+      <c r="B577" t="n">
+        <v>-55.59012190638188</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>521.2789504639829</v>
+      </c>
+      <c r="B578" t="n">
+        <v>-55.59117243632069</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>522.543957086125</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-55.59222880987414</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>523.8086177882564</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-55.593284327696</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>525.072923158961</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-55.59434093663044</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>526.3368793363252</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-55.5953983270278</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_80.xlsx
+++ b/Reverse_anglesIn_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,138 +440,162 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-409.8017416462444</v>
+        <v>-581.0752275067952</v>
       </c>
       <c r="B2" t="n">
-        <v>60.81536379852627</v>
+        <v>64.53752363065307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-299.9771098537376</v>
+        <v>-409.8017416462444</v>
       </c>
       <c r="B3" t="n">
-        <v>58.81077574630618</v>
+        <v>60.81536379852627</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-214.8498429659494</v>
+        <v>-299.9771098537376</v>
       </c>
       <c r="B4" t="n">
-        <v>57.60375329778824</v>
+        <v>58.81077574630618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-142.8404221329019</v>
+        <v>-214.8498429659494</v>
       </c>
       <c r="B5" t="n">
-        <v>56.8354620512149</v>
+        <v>57.60375329778824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-78.8636054427202</v>
+        <v>-142.8404221329019</v>
       </c>
       <c r="B6" t="n">
-        <v>56.33197234937918</v>
+        <v>56.8354620512149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-20.24911567568273</v>
+        <v>-78.8636054427202</v>
       </c>
       <c r="B7" t="n">
-        <v>55.99792146311973</v>
+        <v>56.33197234937918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34.57059100326809</v>
+        <v>-20.24911567568273</v>
       </c>
       <c r="B8" t="n">
-        <v>55.77668543059566</v>
+        <v>55.99792146311973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>86.58885582996362</v>
+        <v>34.57059100326809</v>
       </c>
       <c r="B9" t="n">
-        <v>55.63266835661695</v>
+        <v>55.77668543059566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>136.4705680601647</v>
+        <v>86.58885582996362</v>
       </c>
       <c r="B10" t="n">
-        <v>55.5425533648196</v>
+        <v>55.63266835661695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>184.6797209652547</v>
+        <v>136.4705680601647</v>
       </c>
       <c r="B11" t="n">
-        <v>55.49056948083106</v>
+        <v>55.5425533648196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>231.5509384404663</v>
+        <v>184.6797209652547</v>
       </c>
       <c r="B12" t="n">
-        <v>55.46577054883905</v>
+        <v>55.49056948083106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>277.3317785924383</v>
+        <v>231.5509384404663</v>
       </c>
       <c r="B13" t="n">
-        <v>55.46042495989136</v>
+        <v>55.46577054883905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>322.209608050206</v>
+        <v>277.3317785924383</v>
       </c>
       <c r="B14" t="n">
-        <v>55.46896791724329</v>
+        <v>55.46042495989136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>366.3287651220534</v>
+        <v>322.209608050206</v>
       </c>
       <c r="B15" t="n">
-        <v>55.48735233351542</v>
+        <v>55.46896791724329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>409.8022275632035</v>
+        <v>366.3287651220534</v>
       </c>
       <c r="B16" t="n">
-        <v>55.5126061704876</v>
+        <v>55.48735233351542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>452.7196912703856</v>
+        <v>409.8022275632035</v>
       </c>
       <c r="B17" t="n">
-        <v>55.54252797725146</v>
+        <v>55.5126061704876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>452.7196912703856</v>
+      </c>
+      <c r="B18" t="n">
+        <v>55.54252797725146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>495.1532508711954</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>55.57547587289056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>537.16149053607</v>
+      </c>
+      <c r="B20" t="n">
+        <v>55.61023005004148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>578.7924866790967</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55.64588010560414</v>
       </c>
     </row>
   </sheetData>
